--- a/3-Change Request/Forms/Release Form - F5.xlsx
+++ b/3-Change Request/Forms/Release Form - F5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\3-Change Request\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66374162-BCAC-4ECB-BFB8-969A0EA6197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70FB06-7071-4BE0-845B-58A0CCE1E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFD02EE8-0092-4247-AD75-3F54CC0C98CB}"/>
+    <workbookView xWindow="0" yWindow="2355" windowWidth="15375" windowHeight="7875" xr2:uid="{AFD02EE8-0092-4247-AD75-3F54CC0C98CB}"/>
   </bookViews>
   <sheets>
     <sheet name="F-SW-CR-05" sheetId="1" r:id="rId1"/>

--- a/3-Change Request/Forms/Release Form - F5.xlsx
+++ b/3-Change Request/Forms/Release Form - F5.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\3-Change Request\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70FB06-7071-4BE0-845B-58A0CCE1E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB61AA-C20D-48A5-A397-E3DBAB4181DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2355" windowWidth="15375" windowHeight="7875" xr2:uid="{AFD02EE8-0092-4247-AD75-3F54CC0C98CB}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{AFD02EE8-0092-4247-AD75-3F54CC0C98CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-SW-CR-05" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-05" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-CR-05'!$A$1:$E$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-05'!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AF887-FD95-4146-BB3D-602FD02622ED}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;14Issue No.: (1)&amp;C&amp;14F-SW-SD/05&amp;R&amp;14Rev:0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;14Issue No.: (1)&amp;C&amp;14F-SW-SD/05&amp;R&amp;14Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
